--- a/Hardware Information/Hardware Description.xlsx
+++ b/Hardware Information/Hardware Description.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pin List" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>MLX90614; SHT21; ADS1015; BMP280</t>
   </si>
   <si>
-    <t>Board Voltage Divider</t>
-  </si>
-  <si>
     <t>Board LED, Red LED</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Davis Wind Speed</t>
+  </si>
+  <si>
+    <t>Feather Board Voltage Divider</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">

--- a/Hardware Information/Hardware Description.xlsx
+++ b/Hardware Information/Hardware Description.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Arduino Pin</t>
   </si>
@@ -90,9 +90,6 @@
     <t>SD Card</t>
   </si>
   <si>
-    <t>Power, ground, and reference pins not included. Many PCB connections not present, just sensor/component connections</t>
-  </si>
-  <si>
     <t>Wake</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Li200</t>
   </si>
   <si>
-    <t>MLX90614; SHT21; ADS1015; BMP280</t>
-  </si>
-  <si>
     <t>Board LED, Red LED</t>
   </si>
   <si>
@@ -133,6 +127,75 @@
   </si>
   <si>
     <t>Feather Board Voltage Divider</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>3.3v</t>
+  </si>
+  <si>
+    <t>ARF</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Various Connections - Mostly used for organization</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Labeled as ARF</t>
+  </si>
+  <si>
+    <t>Labeled as Sensor</t>
+  </si>
+  <si>
+    <t>Labeled as SCK</t>
+  </si>
+  <si>
+    <t>Labeled as MOSI</t>
+  </si>
+  <si>
+    <t>Labeled as MISO</t>
+  </si>
+  <si>
+    <t>Labeled as RX</t>
+  </si>
+  <si>
+    <t>Labeled as TX</t>
+  </si>
+  <si>
+    <t>Labeled as USB</t>
+  </si>
+  <si>
+    <t>Labeled as 6</t>
+  </si>
+  <si>
+    <t>None. Through hole</t>
+  </si>
+  <si>
+    <t>Labeled as 9 and VD</t>
+  </si>
+  <si>
+    <t>Labeled as 13 and LED</t>
+  </si>
+  <si>
+    <t>Labeled as SCL *and* separate sensor</t>
+  </si>
+  <si>
+    <t>Labeled as SDA *and* separate sensor</t>
+  </si>
+  <si>
+    <t>None. Solder Jumper</t>
+  </si>
+  <si>
+    <t>Terminal Connections</t>
+  </si>
+  <si>
+    <t>MLX90614; SHT21; ADS1015; BMP280; DS3231</t>
   </si>
 </sst>
 </file>
@@ -156,12 +219,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,13 +281,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,24 +573,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -495,188 +608,307 @@
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="C26" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Information/Hardware Description.xlsx
+++ b/Hardware Information/Hardware Description.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -285,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -296,6 +293,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,17 +589,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -613,46 +613,46 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -663,7 +663,7 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -674,7 +674,7 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -696,7 +696,7 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -718,7 +718,7 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -740,7 +740,7 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -759,7 +759,7 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -822,7 +822,7 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -907,7 +907,7 @@
       <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>48</v>
       </c>
     </row>
